--- a/docs/EAD_to_RiC-O_1.0.2_documentation.xlsx
+++ b/docs/EAD_to_RiC-O_1.0.2_documentation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\shared\ArchivesNationalesFr\travail_ric-o_converter_v3\branch_docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\shared\ArchivesNationalesFr\rico-converter\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A03A172-FF5C-467C-95CB-724B2A42C085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219BCFE6-0167-4768-BB7A-30727BC147EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,23 +300,6 @@
   </si>
   <si>
     <t>/ead/eadheader/filedesc/notestmt</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">&lt;record/{key}&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>rico:generalDescription</t>
-    </r>
   </si>
   <si>
     <t>profiledesc</t>
@@ -704,30 +687,6 @@
   </si>
   <si>
     <t>/ead/archdesc/altformavail | /ead/archdesc/dsc//c/altformavail</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">a HTML &lt;div&gt; section, with a &lt;h4&gt; heading,  inside a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>rico:generalDescription</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> on the rico:RecordResource.</t>
-    </r>
   </si>
   <si>
     <t>Corresponds to the current state of the ANF finding aids (no link exists in the EAD element, that would enable to connect the Record Resource to an instantiation  representing the alternative form).</t>
@@ -1875,8 +1834,51 @@
     </r>
   </si>
   <si>
+    <t>If no repository in archdesc, outputs the default repository (which is the same as the author of the finding aids, see AUTHOR_URI parameter).</t>
+  </si>
+  <si>
+    <t>&lt;record/{key}&gt; rico:hasPublisher &lt;{AUTHOR_URI}&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;record/{key}&gt; rico:history + a HTML &lt;div&gt; section, with a &lt;h4&gt; heading.
+&lt;record/{key}&gt; rico:hasCreator &lt;{AUTHOR_URI}&gt;. {AUTHOR_URI} is a parameter, defined in the xslt_ead/main.xslt file.</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">This is NOT a complete, formal or detailed specification of the mapping between EAD and </t>
+      <t xml:space="preserve">&lt;record/{key}&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>rico:note</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a HTML &lt;div&gt; section, with a &lt;h4&gt; heading,  inside a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>rico:generalDescription</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> on the rico:RecordResource.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is NOT a complete, formal or detailed specification of the mapping between EAD 2002 and </t>
     </r>
     <r>
       <rPr>
@@ -1886,7 +1888,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>RiC-O 1.0.2</t>
+      <t>RiC-O 1.1</t>
     </r>
     <r>
       <rPr>
@@ -1897,16 +1899,16 @@
       <t>, 
 but rather a simple documentation that should serve as an entry point to the more detailed unit tests that act as formal specifications of how the RiC-O converter behaves.</t>
     </r>
-  </si>
-  <si>
-    <t>If no repository in archdesc, outputs the default repository (which is the same as the author of the finding aids, see AUTHOR_URI parameter).</t>
-  </si>
-  <si>
-    <t>&lt;record/{key}&gt; rico:hasPublisher &lt;{AUTHOR_URI}&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;record/{key}&gt; rico:history + a HTML &lt;div&gt; section, with a &lt;h4&gt; heading.
-&lt;record/{key}&gt; rico:hasCreator &lt;{AUTHOR_URI}&gt;. {AUTHOR_URI} is a parameter, defined in the xslt_ead/main.xslt file.</t>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Text or data (notably names of RiC-O properties in column I) that have changed, or have been added to this documentation since version 2 of RiC-O Converter, are in bold characters.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1963,7 +1965,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1978,20 +1980,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="5"/>
-        <bgColor indexed="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2007,7 +1997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2045,29 +2035,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2075,28 +2059,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2355,19 +2339,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>408</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
+      <c r="A1" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
@@ -2424,10 +2408,10 @@
         <v>14</v>
       </c>
       <c r="H3" s="12"/>
-      <c r="I3" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="J3" s="14"/>
+      <c r="I3" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="J3" s="13"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
         <v>15</v>
@@ -2456,7 +2440,7 @@
       <c r="I4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="14"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
         <v>20</v>
@@ -2485,7 +2469,7 @@
       <c r="I5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="14"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
         <v>25</v>
@@ -2514,7 +2498,7 @@
       <c r="I6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="14"/>
+      <c r="J6" s="13"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
         <v>29</v>
@@ -2540,10 +2524,10 @@
         <v>31</v>
       </c>
       <c r="H7" s="12"/>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="14"/>
+      <c r="J7" s="13"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
         <v>33</v>
@@ -2566,10 +2550,10 @@
         <v>35</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="13" t="s">
         <v>36</v>
       </c>
       <c r="K8" s="4"/>
@@ -2597,7 +2581,7 @@
       <c r="I9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="14"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
         <v>40</v>
@@ -2623,7 +2607,7 @@
       <c r="I10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="14"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
         <v>44</v>
@@ -2652,7 +2636,7 @@
       <c r="I11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="14"/>
+      <c r="J11" s="13"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4" t="s">
         <v>48</v>
@@ -2681,7 +2665,7 @@
       <c r="I12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="14"/>
+      <c r="J12" s="13"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
         <v>52</v>
@@ -2710,7 +2694,7 @@
       <c r="I13" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="14"/>
+      <c r="J13" s="13"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
@@ -2730,18 +2714,18 @@
       <c r="D14" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="14"/>
+      <c r="J14" s="13"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4" t="s">
@@ -2772,7 +2756,7 @@
       <c r="I15" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="13" t="s">
         <v>65</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -2804,13 +2788,13 @@
         <v>68</v>
       </c>
       <c r="H16" s="12"/>
-      <c r="I16" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="J16" s="14" t="s">
+      <c r="I16" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="J16" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="17" t="s">
         <v>70</v>
       </c>
       <c r="L16" s="4"/>
@@ -2839,12 +2823,12 @@
         <v>72</v>
       </c>
       <c r="H17" s="12"/>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="14"/>
+      <c r="J17" s="13"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="18" t="s">
+      <c r="L17" s="17" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2870,7 +2854,7 @@
       <c r="I18" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J18" s="14"/>
+      <c r="J18" s="13"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4" t="s">
@@ -2898,10 +2882,10 @@
         <v>79</v>
       </c>
       <c r="H19" s="12"/>
-      <c r="I19" s="25" t="s">
-        <v>410</v>
-      </c>
-      <c r="J19" s="14" t="s">
+      <c r="I19" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="J19" s="13" t="s">
         <v>80</v>
       </c>
       <c r="K19" s="4"/>
@@ -2933,10 +2917,10 @@
         <v>83</v>
       </c>
       <c r="H20" s="12"/>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J20" s="14"/>
+      <c r="J20" s="13"/>
       <c r="K20" s="4" t="s">
         <v>85</v>
       </c>
@@ -2966,7 +2950,7 @@
       <c r="I21" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="14"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4" t="s">
@@ -2992,10 +2976,10 @@
         <v>90</v>
       </c>
       <c r="H22" s="12"/>
-      <c r="I22" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" s="14"/>
+      <c r="I22" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="J22" s="13"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4" t="s">
@@ -3010,23 +2994,23 @@
         <v>13</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J23" s="14"/>
+        <v>93</v>
+      </c>
+      <c r="J23" s="13"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
@@ -3037,29 +3021,29 @@
         <v>13</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J24" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="J24" s="14" t="s">
+      <c r="K24" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
@@ -3070,31 +3054,31 @@
         <v>13</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J25" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="K25" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
@@ -3105,27 +3089,27 @@
         <v>13</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="19" t="s">
+      <c r="J26" s="13" t="s">
         <v>109</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
@@ -3136,27 +3120,27 @@
         <v>13</v>
       </c>
       <c r="C27" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J27" s="13"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="14" t="s">
+      <c r="M27" s="13" t="s">
         <v>116</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -3167,29 +3151,29 @@
         <v>13</v>
       </c>
       <c r="C28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>86</v>
       </c>
       <c r="F28" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="H28" s="12"/>
+      <c r="I28" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="J28" s="14"/>
+      <c r="J28" s="13"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -3200,27 +3184,27 @@
         <v>13</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>113</v>
-      </c>
       <c r="E29" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="J29" s="14"/>
+      <c r="J29" s="13"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="145.19999999999999" x14ac:dyDescent="0.25">
@@ -3228,24 +3212,24 @@
         <v>12</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J30" s="14" t="s">
+      <c r="J30" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="L30" s="4"/>
     </row>
@@ -3254,28 +3238,28 @@
         <v>12</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="J31" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="23" t="s">
-        <v>406</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>130</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M31" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="224.4" x14ac:dyDescent="0.25">
@@ -3283,28 +3267,28 @@
         <v>12</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="J32" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="23" t="s">
-        <v>403</v>
-      </c>
-      <c r="J32" s="14" t="s">
-        <v>135</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="118.8" x14ac:dyDescent="0.25">
@@ -3312,28 +3296,28 @@
         <v>12</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="J33" s="13"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="M33" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="J33" s="14"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
@@ -3341,22 +3325,22 @@
         <v>12</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="J34" s="14"/>
+        <v>142</v>
+      </c>
+      <c r="J34" s="13"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
@@ -3365,32 +3349,32 @@
         <v>12</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J35" s="13"/>
+      <c r="K35" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="J35" s="14"/>
-      <c r="K35" s="4" t="s">
+      <c r="L35" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="M35" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
@@ -3398,28 +3382,28 @@
         <v>12</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="J36" s="14"/>
+        <v>151</v>
+      </c>
+      <c r="J36" s="13"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="92.4" x14ac:dyDescent="0.25">
@@ -3427,28 +3411,28 @@
         <v>12</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="J37" s="14"/>
+        <v>155</v>
+      </c>
+      <c r="J37" s="13"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="132" x14ac:dyDescent="0.25">
@@ -3456,30 +3440,30 @@
         <v>12</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H38" s="12"/>
+      <c r="I38" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="J38" s="14"/>
-      <c r="K38" s="28" t="s">
-        <v>399</v>
+      <c r="J38" s="13"/>
+      <c r="K38" s="25" t="s">
+        <v>397</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="92.4" x14ac:dyDescent="0.25">
@@ -3487,32 +3471,32 @@
         <v>12</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J39" s="13"/>
+      <c r="K39" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="J39" s="14"/>
-      <c r="K39" s="4" t="s">
+      <c r="L39" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="M39" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="105.6" x14ac:dyDescent="0.25">
@@ -3520,30 +3504,30 @@
         <v>12</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="J40" s="14"/>
+        <v>169</v>
+      </c>
+      <c r="J40" s="13"/>
       <c r="K40" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="66" x14ac:dyDescent="0.25">
@@ -3551,30 +3535,30 @@
         <v>12</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="J41" s="14"/>
-      <c r="K41" s="24" t="s">
-        <v>409</v>
+        <v>173</v>
+      </c>
+      <c r="J41" s="13"/>
+      <c r="K41" s="21" t="s">
+        <v>406</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
@@ -3582,28 +3566,28 @@
         <v>12</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="17" t="s">
-        <v>177</v>
+      <c r="G42" s="16" t="s">
+        <v>176</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="J42" s="14"/>
+        <v>177</v>
+      </c>
+      <c r="J42" s="13"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -3611,24 +3595,24 @@
         <v>12</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
-      <c r="G43" s="17" t="s">
-        <v>181</v>
+      <c r="G43" s="16" t="s">
+        <v>180</v>
       </c>
       <c r="H43" s="12"/>
-      <c r="I43" s="16" t="s">
+      <c r="I43" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J43" s="14"/>
+      <c r="J43" s="13"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
@@ -3637,30 +3621,30 @@
         <v>12</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="H44" s="12"/>
+      <c r="I44" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="J44" s="13"/>
+      <c r="K44" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="H44" s="12"/>
-      <c r="I44" s="26" t="s">
-        <v>400</v>
-      </c>
-      <c r="J44" s="14"/>
-      <c r="K44" s="4" t="s">
+      <c r="L44" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="M44" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
@@ -3668,26 +3652,26 @@
         <v>12</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="H45" s="12"/>
+      <c r="I45" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="15" t="s">
+      <c r="J45" s="13"/>
+      <c r="K45" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="J45" s="14"/>
-      <c r="K45" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="L45" s="18" t="s">
+      <c r="L45" s="17" t="s">
         <v>73</v>
       </c>
       <c r="M45" s="4"/>
@@ -3697,28 +3681,28 @@
         <v>12</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="J46" s="14"/>
+        <v>192</v>
+      </c>
+      <c r="J46" s="13"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="M46" s="17" t="s">
         <v>194</v>
-      </c>
-      <c r="M46" s="18" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="92.4" x14ac:dyDescent="0.25">
@@ -3726,28 +3710,28 @@
         <v>12</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="J47" s="14"/>
+        <v>197</v>
+      </c>
+      <c r="J47" s="13"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="M47" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="M47" s="18" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
@@ -3755,28 +3739,28 @@
         <v>12</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H48" s="12"/>
-      <c r="I48" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="J48" s="14"/>
+      <c r="I48" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="J48" s="13"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="105.6" x14ac:dyDescent="0.25">
@@ -3784,28 +3768,28 @@
         <v>12</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="J49" s="14"/>
+        <v>206</v>
+      </c>
+      <c r="J49" s="13"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="24" t="s">
-        <v>401</v>
+      <c r="L49" s="21" t="s">
+        <v>399</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="79.2" x14ac:dyDescent="0.25">
@@ -3813,27 +3797,27 @@
         <v>12</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="J50" s="14"/>
+        <v>188</v>
+      </c>
+      <c r="J50" s="13"/>
       <c r="K50" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="92.4" x14ac:dyDescent="0.25">
@@ -3841,28 +3825,28 @@
         <v>12</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="J51" s="14"/>
+        <v>214</v>
+      </c>
+      <c r="J51" s="13"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="105.6" x14ac:dyDescent="0.25">
@@ -3870,27 +3854,27 @@
         <v>12</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H52" s="12"/>
-      <c r="I52" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J52" s="14"/>
-      <c r="K52" s="29" t="s">
-        <v>404</v>
+      <c r="I52" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="J52" s="13"/>
+      <c r="K52" s="27" t="s">
+        <v>402</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="66" x14ac:dyDescent="0.25">
@@ -3898,28 +3882,28 @@
         <v>12</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="J53" s="14"/>
+        <v>222</v>
+      </c>
+      <c r="J53" s="13"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="105.6" x14ac:dyDescent="0.25">
@@ -3927,28 +3911,28 @@
         <v>12</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="J54" s="14"/>
+        <v>227</v>
+      </c>
+      <c r="J54" s="13"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="105.6" x14ac:dyDescent="0.25">
@@ -3956,25 +3940,25 @@
         <v>12</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="H55" s="13"/>
+      <c r="I55" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="G55" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H55" s="14"/>
-      <c r="I55" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="J55" s="14"/>
+      <c r="J55" s="13"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3982,22 +3966,22 @@
         <v>12</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H56" s="12"/>
-      <c r="I56" s="16" t="s">
+      <c r="I56" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J56" s="14"/>
+      <c r="J56" s="13"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4" t="s">
         <v>73</v>
@@ -4009,26 +3993,26 @@
         <v>12</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H57" s="12"/>
-      <c r="I57" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="J57" s="14"/>
+      <c r="I57" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="J57" s="13"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
@@ -4036,26 +4020,26 @@
         <v>12</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H58" s="12"/>
       <c r="I58" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="J58" s="14"/>
+        <v>243</v>
+      </c>
+      <c r="J58" s="13"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="105.6" x14ac:dyDescent="0.25">
@@ -4063,28 +4047,28 @@
         <v>12</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H59" s="12"/>
-      <c r="I59" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="J59" s="14"/>
+      <c r="I59" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="J59" s="13"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="105.6" x14ac:dyDescent="0.25">
@@ -4092,28 +4076,28 @@
         <v>12</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H60" s="12"/>
-      <c r="I60" s="23" t="s">
-        <v>405</v>
-      </c>
-      <c r="J60" s="14"/>
+      <c r="I60" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="J60" s="13"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="132" x14ac:dyDescent="0.25">
@@ -4121,28 +4105,28 @@
         <v>12</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="H61" s="12"/>
+      <c r="I61" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="J61" s="13"/>
+      <c r="K61" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="H61" s="12"/>
-      <c r="I61" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="J61" s="14"/>
-      <c r="K61" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="L61" s="4"/>
       <c r="M61" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="92.4" x14ac:dyDescent="0.25">
@@ -4150,28 +4134,28 @@
         <v>12</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
       <c r="G62" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H62" s="12"/>
-      <c r="I62" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="J62" s="14"/>
+      <c r="I62" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="J62" s="13"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
@@ -4179,26 +4163,26 @@
         <v>12</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="G63" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H63" s="12"/>
       <c r="I63" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="J63" s="14"/>
+        <v>266</v>
+      </c>
+      <c r="J63" s="13"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -4206,10 +4190,10 @@
         <v>12</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
@@ -4217,7 +4201,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
       <c r="I64" s="11"/>
-      <c r="J64" s="14"/>
+      <c r="J64" s="13"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
@@ -4227,32 +4211,32 @@
         <v>12</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
       <c r="G65" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H65" s="12"/>
       <c r="I65" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="J65" s="13"/>
+      <c r="K65" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="L65" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="J65" s="14"/>
-      <c r="K65" s="4" t="s">
+      <c r="M65" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
@@ -4260,32 +4244,32 @@
         <v>12</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
       <c r="G66" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H66" s="12"/>
       <c r="I66" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="J66" s="13"/>
+      <c r="K66" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="L66" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="J66" s="14"/>
-      <c r="K66" s="4" t="s">
+      <c r="M66" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="303.60000000000002" x14ac:dyDescent="0.25">
@@ -4293,30 +4277,30 @@
         <v>12</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
       <c r="G67" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H67" s="12"/>
       <c r="I67" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="J67" s="14"/>
+        <v>283</v>
+      </c>
+      <c r="J67" s="13"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="79.2" x14ac:dyDescent="0.25">
@@ -4324,30 +4308,30 @@
         <v>12</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
       <c r="G68" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H68" s="12"/>
       <c r="I68" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="J68" s="14"/>
+        <v>288</v>
+      </c>
+      <c r="J68" s="13"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="171.6" x14ac:dyDescent="0.25">
@@ -4355,30 +4339,30 @@
         <v>12</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
       <c r="G69" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H69" s="12"/>
       <c r="I69" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="J69" s="14"/>
+        <v>293</v>
+      </c>
+      <c r="J69" s="13"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="79.2" x14ac:dyDescent="0.25">
@@ -4386,30 +4370,30 @@
         <v>12</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
       <c r="G70" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H70" s="12"/>
       <c r="I70" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="J70" s="14"/>
+        <v>298</v>
+      </c>
+      <c r="J70" s="13"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
@@ -4417,30 +4401,30 @@
         <v>12</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
       <c r="G71" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H71" s="12"/>
       <c r="I71" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="J71" s="14"/>
+        <v>303</v>
+      </c>
+      <c r="J71" s="13"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="66" x14ac:dyDescent="0.25">
@@ -4448,29 +4432,29 @@
         <v>12</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
       <c r="G72" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="H72" s="12"/>
+      <c r="I72" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J72" s="13"/>
+      <c r="K72" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="L72" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="H72" s="12"/>
-      <c r="I72" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J72" s="14"/>
-      <c r="K72" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="L72" s="4" t="s">
-        <v>311</v>
       </c>
       <c r="M72" s="4"/>
     </row>
@@ -4479,29 +4463,29 @@
         <v>12</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
       <c r="G73" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H73" s="12"/>
+      <c r="I73" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J73" s="13"/>
+      <c r="K73" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="L73" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="H73" s="12"/>
-      <c r="I73" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J73" s="14"/>
-      <c r="K73" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="L73" s="4" t="s">
-        <v>315</v>
       </c>
       <c r="M73" s="4"/>
     </row>
@@ -4510,30 +4494,30 @@
         <v>12</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
       <c r="G74" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H74" s="12"/>
       <c r="I74" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="J74" s="14"/>
+        <v>316</v>
+      </c>
+      <c r="J74" s="13"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="158.4" x14ac:dyDescent="0.25">
@@ -4541,28 +4525,28 @@
         <v>12</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
       <c r="G75" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H75" s="12"/>
-      <c r="I75" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="J75" s="14"/>
+      <c r="I75" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="J75" s="13"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="79.2" x14ac:dyDescent="0.25">
@@ -4570,26 +4554,26 @@
         <v>12</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H76" s="12"/>
       <c r="I76" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="J76" s="14"/>
+        <v>325</v>
+      </c>
+      <c r="J76" s="13"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
@@ -4599,30 +4583,30 @@
         <v>12</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H77" s="12"/>
       <c r="I77" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="J77" s="14"/>
+        <v>328</v>
+      </c>
+      <c r="J77" s="13"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -4630,26 +4614,26 @@
         <v>12</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H78" s="12"/>
       <c r="I78" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="J78" s="14"/>
+        <v>330</v>
+      </c>
+      <c r="J78" s="13"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
     </row>
@@ -4658,26 +4642,26 @@
         <v>12</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H79" s="12"/>
       <c r="I79" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="J79" s="14"/>
+        <v>332</v>
+      </c>
+      <c r="J79" s="13"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
     </row>
@@ -4686,26 +4670,26 @@
         <v>12</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H80" s="12"/>
       <c r="I80" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="J80" s="14"/>
+        <v>334</v>
+      </c>
+      <c r="J80" s="13"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
     </row>
@@ -4714,28 +4698,28 @@
         <v>12</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H81" s="12"/>
       <c r="I81" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="J81" s="14"/>
+        <v>336</v>
+      </c>
+      <c r="J81" s="13"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
     </row>
@@ -4744,28 +4728,28 @@
         <v>12</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H82" s="12"/>
       <c r="I82" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="J82" s="14"/>
+        <v>338</v>
+      </c>
+      <c r="J82" s="13"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
     </row>
@@ -4774,29 +4758,29 @@
         <v>12</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H83" s="12"/>
       <c r="I83" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="J83" s="14" t="s">
-        <v>343</v>
+        <v>340</v>
+      </c>
+      <c r="J83" s="13" t="s">
+        <v>341</v>
       </c>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
@@ -4806,30 +4790,30 @@
         <v>12</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G84" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="I84" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="H84" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="I84" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="J84" s="14"/>
+      <c r="J84" s="13"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
     </row>
@@ -4838,28 +4822,28 @@
         <v>12</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H85" s="12"/>
       <c r="I85" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="J85" s="14"/>
+        <v>346</v>
+      </c>
+      <c r="J85" s="13"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
     </row>
@@ -4868,28 +4852,28 @@
         <v>12</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H86" s="12"/>
       <c r="I86" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="J86" s="14"/>
+        <v>348</v>
+      </c>
+      <c r="J86" s="13"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
     </row>
@@ -4898,28 +4882,28 @@
         <v>12</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H87" s="12"/>
       <c r="I87" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="J87" s="14"/>
+        <v>350</v>
+      </c>
+      <c r="J87" s="13"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
     </row>
@@ -4928,28 +4912,28 @@
         <v>12</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H88" s="12"/>
       <c r="I88" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="J88" s="14"/>
+        <v>352</v>
+      </c>
+      <c r="J88" s="13"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
     </row>
@@ -4958,28 +4942,28 @@
         <v>12</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H89" s="12"/>
-      <c r="I89" s="16" t="s">
+      <c r="I89" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J89" s="14"/>
+      <c r="J89" s="13"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
     </row>
@@ -4988,26 +4972,26 @@
         <v>12</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H90" s="12"/>
       <c r="I90" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="J90" s="14"/>
+        <v>355</v>
+      </c>
+      <c r="J90" s="13"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
     </row>
@@ -5016,26 +5000,26 @@
         <v>12</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H91" s="12"/>
       <c r="I91" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J91" s="14"/>
+      <c r="J91" s="13"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
     </row>
@@ -5044,26 +5028,26 @@
         <v>12</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H92" s="12"/>
       <c r="I92" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="J92" s="14"/>
+        <v>358</v>
+      </c>
+      <c r="J92" s="13"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
     </row>
@@ -5072,26 +5056,26 @@
         <v>12</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H93" s="12"/>
       <c r="I93" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="J93" s="14"/>
+        <v>360</v>
+      </c>
+      <c r="J93" s="13"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
     </row>
@@ -5100,26 +5084,26 @@
         <v>12</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F94" s="10"/>
       <c r="G94" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H94" s="12"/>
       <c r="I94" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="J94" s="14"/>
+        <v>362</v>
+      </c>
+      <c r="J94" s="13"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
     </row>
@@ -5128,26 +5112,26 @@
         <v>12</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F95" s="10"/>
       <c r="G95" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H95" s="12"/>
       <c r="I95" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="J95" s="14"/>
+        <v>364</v>
+      </c>
+      <c r="J95" s="13"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
     </row>
@@ -5156,26 +5140,26 @@
         <v>12</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F96" s="10"/>
       <c r="G96" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H96" s="12"/>
-      <c r="I96" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="J96" s="14"/>
+      <c r="I96" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="J96" s="13"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
     </row>
@@ -5184,26 +5168,26 @@
         <v>12</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H97" s="12"/>
-      <c r="I97" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="J97" s="14"/>
+      <c r="I97" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="J97" s="13"/>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
     </row>
@@ -5212,26 +5196,26 @@
         <v>12</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F98" s="10"/>
       <c r="G98" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H98" s="12"/>
-      <c r="I98" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="J98" s="14"/>
+      <c r="I98" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="J98" s="13"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
     </row>
@@ -5240,26 +5224,26 @@
         <v>12</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F99" s="10"/>
       <c r="G99" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H99" s="12"/>
-      <c r="I99" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="J99" s="14"/>
+      <c r="I99" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="J99" s="13"/>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
     </row>
@@ -5268,26 +5252,26 @@
         <v>12</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F100" s="10"/>
       <c r="G100" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H100" s="12"/>
-      <c r="I100" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="J100" s="14"/>
+      <c r="I100" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="J100" s="13"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
     </row>
@@ -5296,26 +5280,26 @@
         <v>12</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F101" s="10"/>
       <c r="G101" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H101" s="12"/>
-      <c r="I101" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="J101" s="14"/>
+      <c r="I101" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="J101" s="13"/>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
     </row>
@@ -5324,26 +5308,26 @@
         <v>12</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H102" s="12"/>
-      <c r="I102" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="J102" s="14"/>
+      <c r="I102" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="J102" s="13"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
     </row>
@@ -5352,26 +5336,26 @@
         <v>12</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F103" s="10"/>
       <c r="G103" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H103" s="12"/>
-      <c r="I103" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="J103" s="14"/>
+      <c r="I103" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="J103" s="13"/>
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
     </row>
@@ -5380,26 +5364,26 @@
         <v>12</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F104" s="10"/>
       <c r="G104" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H104" s="12"/>
-      <c r="I104" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="J104" s="14"/>
+      <c r="I104" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="J104" s="13"/>
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
     </row>
@@ -5408,26 +5392,26 @@
         <v>12</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F105" s="10"/>
       <c r="G105" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H105" s="12"/>
-      <c r="I105" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="J105" s="14"/>
+      <c r="I105" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="J105" s="13"/>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
     </row>
@@ -5436,26 +5420,26 @@
         <v>12</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F106" s="10"/>
       <c r="G106" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H106" s="12"/>
-      <c r="I106" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="J106" s="14"/>
+      <c r="I106" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="J106" s="13"/>
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
     </row>
@@ -5464,26 +5448,26 @@
         <v>12</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F107" s="10"/>
       <c r="G107" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H107" s="12"/>
-      <c r="I107" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="J107" s="14"/>
+      <c r="I107" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="J107" s="13"/>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
     </row>
@@ -5492,26 +5476,26 @@
         <v>12</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H108" s="12"/>
-      <c r="I108" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="J108" s="14"/>
+      <c r="I108" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="J108" s="13"/>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
     </row>
@@ -5520,26 +5504,26 @@
         <v>12</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F109" s="10"/>
       <c r="G109" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H109" s="12"/>
-      <c r="I109" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="J109" s="14"/>
+      <c r="I109" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="J109" s="13"/>
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
     </row>
@@ -5548,28 +5532,28 @@
         <v>12</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H110" s="12"/>
       <c r="I110" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="J110" s="14"/>
+        <v>395</v>
+      </c>
+      <c r="J110" s="13"/>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
     </row>
@@ -5583,7 +5567,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
       <c r="I111" s="11"/>
-      <c r="J111" s="14"/>
+      <c r="J111" s="13"/>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
     </row>
@@ -5597,7 +5581,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
       <c r="I112" s="11"/>
-      <c r="J112" s="14"/>
+      <c r="J112" s="13"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
     </row>
@@ -5611,7 +5595,7 @@
       <c r="G113" s="11"/>
       <c r="H113" s="12"/>
       <c r="I113" s="11"/>
-      <c r="J113" s="14"/>
+      <c r="J113" s="13"/>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
     </row>
@@ -5625,7 +5609,7 @@
       <c r="G114" s="11"/>
       <c r="H114" s="12"/>
       <c r="I114" s="11"/>
-      <c r="J114" s="14"/>
+      <c r="J114" s="13"/>
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
     </row>
@@ -5639,7 +5623,7 @@
       <c r="G115" s="11"/>
       <c r="H115" s="12"/>
       <c r="I115" s="11"/>
-      <c r="J115" s="14"/>
+      <c r="J115" s="13"/>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
     </row>
@@ -5653,7 +5637,7 @@
       <c r="G116" s="11"/>
       <c r="H116" s="12"/>
       <c r="I116" s="11"/>
-      <c r="J116" s="14"/>
+      <c r="J116" s="13"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
     </row>
@@ -5667,7 +5651,7 @@
       <c r="G117" s="11"/>
       <c r="H117" s="12"/>
       <c r="I117" s="11"/>
-      <c r="J117" s="14"/>
+      <c r="J117" s="13"/>
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
     </row>
@@ -5681,7 +5665,7 @@
       <c r="G118" s="11"/>
       <c r="H118" s="12"/>
       <c r="I118" s="11"/>
-      <c r="J118" s="14"/>
+      <c r="J118" s="13"/>
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
     </row>
@@ -5695,7 +5679,7 @@
       <c r="G119" s="11"/>
       <c r="H119" s="12"/>
       <c r="I119" s="11"/>
-      <c r="J119" s="14"/>
+      <c r="J119" s="13"/>
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
     </row>
@@ -5709,7 +5693,7 @@
       <c r="G120" s="11"/>
       <c r="H120" s="12"/>
       <c r="I120" s="11"/>
-      <c r="J120" s="14"/>
+      <c r="J120" s="13"/>
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
     </row>
@@ -5717,13 +5701,13 @@
       <c r="A121" s="9"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
-      <c r="D121" s="21"/>
-      <c r="E121" s="21"/>
-      <c r="F121" s="21"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="22"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="20"/>
       <c r="I121" s="11"/>
-      <c r="J121" s="14"/>
+      <c r="J121" s="13"/>
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
     </row>
@@ -5731,13 +5715,13 @@
       <c r="A122" s="9"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
-      <c r="D122" s="21"/>
-      <c r="E122" s="21"/>
-      <c r="F122" s="21"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="22"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="14"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="13"/>
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
     </row>
@@ -5750,8 +5734,8 @@
       <c r="F123" s="10"/>
       <c r="G123" s="11"/>
       <c r="H123" s="12"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="14"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="13"/>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
     </row>
@@ -5764,8 +5748,8 @@
       <c r="F124" s="10"/>
       <c r="G124" s="11"/>
       <c r="H124" s="12"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="13"/>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
     </row>
@@ -5774,9 +5758,9 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
-      <c r="H125" s="14"/>
+      <c r="H125" s="13"/>
       <c r="I125" s="4"/>
-      <c r="J125" s="14"/>
+      <c r="J125" s="13"/>
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
     </row>
@@ -5785,9 +5769,9 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
-      <c r="H126" s="14"/>
+      <c r="H126" s="13"/>
       <c r="I126" s="4"/>
-      <c r="J126" s="14"/>
+      <c r="J126" s="13"/>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
     </row>
@@ -5796,9 +5780,9 @@
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
-      <c r="H127" s="14"/>
+      <c r="H127" s="13"/>
       <c r="I127" s="4"/>
-      <c r="J127" s="14"/>
+      <c r="J127" s="13"/>
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
     </row>
@@ -5807,9 +5791,9 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
-      <c r="H128" s="14"/>
+      <c r="H128" s="13"/>
       <c r="I128" s="4"/>
-      <c r="J128" s="14"/>
+      <c r="J128" s="13"/>
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
     </row>
@@ -5818,9 +5802,9 @@
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
-      <c r="H129" s="14"/>
+      <c r="H129" s="13"/>
       <c r="I129" s="4"/>
-      <c r="J129" s="14"/>
+      <c r="J129" s="13"/>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
     </row>
@@ -5829,9 +5813,9 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
-      <c r="H130" s="14"/>
+      <c r="H130" s="13"/>
       <c r="I130" s="4"/>
-      <c r="J130" s="14"/>
+      <c r="J130" s="13"/>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
     </row>
@@ -5840,9 +5824,9 @@
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
-      <c r="H131" s="14"/>
+      <c r="H131" s="13"/>
       <c r="I131" s="4"/>
-      <c r="J131" s="14"/>
+      <c r="J131" s="13"/>
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
     </row>
@@ -5851,9 +5835,9 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
-      <c r="H132" s="14"/>
+      <c r="H132" s="13"/>
       <c r="I132" s="4"/>
-      <c r="J132" s="14"/>
+      <c r="J132" s="13"/>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
     </row>
@@ -5862,9 +5846,9 @@
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
-      <c r="H133" s="14"/>
+      <c r="H133" s="13"/>
       <c r="I133" s="4"/>
-      <c r="J133" s="14"/>
+      <c r="J133" s="13"/>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
     </row>
@@ -5873,9 +5857,9 @@
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
-      <c r="H134" s="14"/>
+      <c r="H134" s="13"/>
       <c r="I134" s="4"/>
-      <c r="J134" s="14"/>
+      <c r="J134" s="13"/>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
     </row>
@@ -5884,9 +5868,9 @@
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
-      <c r="H135" s="14"/>
+      <c r="H135" s="13"/>
       <c r="I135" s="4"/>
-      <c r="J135" s="14"/>
+      <c r="J135" s="13"/>
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
     </row>
@@ -5895,9 +5879,9 @@
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
-      <c r="H136" s="14"/>
+      <c r="H136" s="13"/>
       <c r="I136" s="4"/>
-      <c r="J136" s="14"/>
+      <c r="J136" s="13"/>
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
     </row>
@@ -5906,9 +5890,9 @@
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
-      <c r="H137" s="14"/>
+      <c r="H137" s="13"/>
       <c r="I137" s="4"/>
-      <c r="J137" s="14"/>
+      <c r="J137" s="13"/>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
     </row>
@@ -5917,9 +5901,9 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
-      <c r="H138" s="14"/>
+      <c r="H138" s="13"/>
       <c r="I138" s="4"/>
-      <c r="J138" s="14"/>
+      <c r="J138" s="13"/>
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
     </row>
@@ -5928,9 +5912,9 @@
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
-      <c r="H139" s="14"/>
+      <c r="H139" s="13"/>
       <c r="I139" s="4"/>
-      <c r="J139" s="14"/>
+      <c r="J139" s="13"/>
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
     </row>
@@ -5939,9 +5923,9 @@
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
-      <c r="H140" s="14"/>
+      <c r="H140" s="13"/>
       <c r="I140" s="4"/>
-      <c r="J140" s="14"/>
+      <c r="J140" s="13"/>
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
     </row>
@@ -5950,9 +5934,9 @@
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
-      <c r="H141" s="14"/>
+      <c r="H141" s="13"/>
       <c r="I141" s="4"/>
-      <c r="J141" s="14"/>
+      <c r="J141" s="13"/>
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
     </row>
@@ -5961,9 +5945,9 @@
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
-      <c r="H142" s="14"/>
+      <c r="H142" s="13"/>
       <c r="I142" s="4"/>
-      <c r="J142" s="14"/>
+      <c r="J142" s="13"/>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
     </row>
@@ -5972,9 +5956,9 @@
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
-      <c r="H143" s="14"/>
+      <c r="H143" s="13"/>
       <c r="I143" s="4"/>
-      <c r="J143" s="14"/>
+      <c r="J143" s="13"/>
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
     </row>
@@ -5983,9 +5967,9 @@
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
-      <c r="H144" s="14"/>
+      <c r="H144" s="13"/>
       <c r="I144" s="4"/>
-      <c r="J144" s="14"/>
+      <c r="J144" s="13"/>
       <c r="K144" s="4"/>
       <c r="L144" s="4"/>
     </row>
@@ -5994,9 +5978,9 @@
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
-      <c r="H145" s="14"/>
+      <c r="H145" s="13"/>
       <c r="I145" s="4"/>
-      <c r="J145" s="14"/>
+      <c r="J145" s="13"/>
       <c r="K145" s="4"/>
       <c r="L145" s="4"/>
     </row>
@@ -6005,9 +5989,9 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
-      <c r="H146" s="14"/>
+      <c r="H146" s="13"/>
       <c r="I146" s="4"/>
-      <c r="J146" s="14"/>
+      <c r="J146" s="13"/>
       <c r="K146" s="4"/>
       <c r="L146" s="4"/>
     </row>
@@ -6016,9 +6000,9 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
-      <c r="H147" s="14"/>
+      <c r="H147" s="13"/>
       <c r="I147" s="4"/>
-      <c r="J147" s="14"/>
+      <c r="J147" s="13"/>
       <c r="K147" s="4"/>
       <c r="L147" s="4"/>
     </row>
@@ -6027,9 +6011,9 @@
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
-      <c r="H148" s="14"/>
+      <c r="H148" s="13"/>
       <c r="I148" s="4"/>
-      <c r="J148" s="14"/>
+      <c r="J148" s="13"/>
       <c r="K148" s="4"/>
       <c r="L148" s="4"/>
     </row>
@@ -6038,9 +6022,9 @@
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
-      <c r="H149" s="14"/>
+      <c r="H149" s="13"/>
       <c r="I149" s="4"/>
-      <c r="J149" s="14"/>
+      <c r="J149" s="13"/>
       <c r="K149" s="4"/>
       <c r="L149" s="4"/>
     </row>
@@ -6049,9 +6033,9 @@
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
-      <c r="H150" s="14"/>
+      <c r="H150" s="13"/>
       <c r="I150" s="4"/>
-      <c r="J150" s="14"/>
+      <c r="J150" s="13"/>
       <c r="K150" s="4"/>
       <c r="L150" s="4"/>
     </row>
@@ -6060,9 +6044,9 @@
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
-      <c r="H151" s="14"/>
+      <c r="H151" s="13"/>
       <c r="I151" s="4"/>
-      <c r="J151" s="14"/>
+      <c r="J151" s="13"/>
       <c r="K151" s="4"/>
       <c r="L151" s="4"/>
     </row>
@@ -6071,9 +6055,9 @@
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
-      <c r="H152" s="14"/>
+      <c r="H152" s="13"/>
       <c r="I152" s="4"/>
-      <c r="J152" s="14"/>
+      <c r="J152" s="13"/>
       <c r="K152" s="4"/>
       <c r="L152" s="4"/>
     </row>
@@ -6082,9 +6066,9 @@
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
-      <c r="H153" s="14"/>
+      <c r="H153" s="13"/>
       <c r="I153" s="4"/>
-      <c r="J153" s="14"/>
+      <c r="J153" s="13"/>
       <c r="K153" s="4"/>
       <c r="L153" s="4"/>
     </row>
@@ -6093,9 +6077,9 @@
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
-      <c r="H154" s="14"/>
+      <c r="H154" s="13"/>
       <c r="I154" s="4"/>
-      <c r="J154" s="14"/>
+      <c r="J154" s="13"/>
       <c r="K154" s="4"/>
       <c r="L154" s="4"/>
     </row>
@@ -6104,9 +6088,9 @@
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
-      <c r="H155" s="14"/>
+      <c r="H155" s="13"/>
       <c r="I155" s="4"/>
-      <c r="J155" s="14"/>
+      <c r="J155" s="13"/>
       <c r="K155" s="4"/>
       <c r="L155" s="4"/>
     </row>
@@ -6115,9 +6099,9 @@
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
-      <c r="H156" s="14"/>
+      <c r="H156" s="13"/>
       <c r="I156" s="4"/>
-      <c r="J156" s="14"/>
+      <c r="J156" s="13"/>
       <c r="K156" s="4"/>
       <c r="L156" s="4"/>
     </row>
@@ -6126,9 +6110,9 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
-      <c r="H157" s="14"/>
+      <c r="H157" s="13"/>
       <c r="I157" s="4"/>
-      <c r="J157" s="14"/>
+      <c r="J157" s="13"/>
       <c r="K157" s="4"/>
       <c r="L157" s="4"/>
     </row>
@@ -6137,9 +6121,9 @@
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
-      <c r="H158" s="14"/>
+      <c r="H158" s="13"/>
       <c r="I158" s="4"/>
-      <c r="J158" s="14"/>
+      <c r="J158" s="13"/>
       <c r="K158" s="4"/>
       <c r="L158" s="4"/>
     </row>
@@ -6148,9 +6132,9 @@
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
-      <c r="H159" s="14"/>
+      <c r="H159" s="13"/>
       <c r="I159" s="4"/>
-      <c r="J159" s="14"/>
+      <c r="J159" s="13"/>
       <c r="K159" s="4"/>
       <c r="L159" s="4"/>
     </row>
@@ -6159,9 +6143,9 @@
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
-      <c r="H160" s="14"/>
+      <c r="H160" s="13"/>
       <c r="I160" s="4"/>
-      <c r="J160" s="14"/>
+      <c r="J160" s="13"/>
       <c r="K160" s="4"/>
       <c r="L160" s="4"/>
     </row>
@@ -6170,9 +6154,9 @@
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
-      <c r="H161" s="14"/>
+      <c r="H161" s="13"/>
       <c r="I161" s="4"/>
-      <c r="J161" s="14"/>
+      <c r="J161" s="13"/>
       <c r="K161" s="4"/>
       <c r="L161" s="4"/>
     </row>
@@ -6181,9 +6165,9 @@
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
-      <c r="H162" s="14"/>
+      <c r="H162" s="13"/>
       <c r="I162" s="4"/>
-      <c r="J162" s="14"/>
+      <c r="J162" s="13"/>
       <c r="K162" s="4"/>
       <c r="L162" s="4"/>
     </row>
@@ -6192,9 +6176,9 @@
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
-      <c r="H163" s="14"/>
+      <c r="H163" s="13"/>
       <c r="I163" s="4"/>
-      <c r="J163" s="14"/>
+      <c r="J163" s="13"/>
       <c r="K163" s="4"/>
       <c r="L163" s="4"/>
     </row>
@@ -6203,9 +6187,9 @@
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
-      <c r="H164" s="14"/>
+      <c r="H164" s="13"/>
       <c r="I164" s="4"/>
-      <c r="J164" s="14"/>
+      <c r="J164" s="13"/>
       <c r="K164" s="4"/>
       <c r="L164" s="4"/>
     </row>
@@ -6214,9 +6198,9 @@
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
-      <c r="H165" s="14"/>
+      <c r="H165" s="13"/>
       <c r="I165" s="4"/>
-      <c r="J165" s="14"/>
+      <c r="J165" s="13"/>
       <c r="K165" s="4"/>
       <c r="L165" s="4"/>
     </row>
@@ -6225,9 +6209,9 @@
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
-      <c r="H166" s="14"/>
+      <c r="H166" s="13"/>
       <c r="I166" s="4"/>
-      <c r="J166" s="14"/>
+      <c r="J166" s="13"/>
       <c r="K166" s="4"/>
       <c r="L166" s="4"/>
     </row>
@@ -6236,9 +6220,9 @@
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
-      <c r="H167" s="14"/>
+      <c r="H167" s="13"/>
       <c r="I167" s="4"/>
-      <c r="J167" s="14"/>
+      <c r="J167" s="13"/>
       <c r="K167" s="4"/>
       <c r="L167" s="4"/>
     </row>
@@ -6247,9 +6231,9 @@
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
-      <c r="H168" s="14"/>
+      <c r="H168" s="13"/>
       <c r="I168" s="4"/>
-      <c r="J168" s="14"/>
+      <c r="J168" s="13"/>
       <c r="K168" s="4"/>
       <c r="L168" s="4"/>
     </row>
@@ -6258,9 +6242,9 @@
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
-      <c r="H169" s="14"/>
+      <c r="H169" s="13"/>
       <c r="I169" s="4"/>
-      <c r="J169" s="14"/>
+      <c r="J169" s="13"/>
       <c r="K169" s="4"/>
       <c r="L169" s="4"/>
     </row>
@@ -6269,9 +6253,9 @@
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
-      <c r="H170" s="14"/>
+      <c r="H170" s="13"/>
       <c r="I170" s="4"/>
-      <c r="J170" s="14"/>
+      <c r="J170" s="13"/>
       <c r="K170" s="4"/>
       <c r="L170" s="4"/>
     </row>
@@ -6280,9 +6264,9 @@
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
-      <c r="H171" s="14"/>
+      <c r="H171" s="13"/>
       <c r="I171" s="4"/>
-      <c r="J171" s="14"/>
+      <c r="J171" s="13"/>
       <c r="K171" s="4"/>
       <c r="L171" s="4"/>
     </row>
@@ -6291,9 +6275,9 @@
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
-      <c r="H172" s="14"/>
+      <c r="H172" s="13"/>
       <c r="I172" s="4"/>
-      <c r="J172" s="14"/>
+      <c r="J172" s="13"/>
       <c r="K172" s="4"/>
       <c r="L172" s="4"/>
     </row>
@@ -6302,9 +6286,9 @@
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
-      <c r="H173" s="14"/>
+      <c r="H173" s="13"/>
       <c r="I173" s="4"/>
-      <c r="J173" s="14"/>
+      <c r="J173" s="13"/>
       <c r="K173" s="4"/>
       <c r="L173" s="4"/>
     </row>
@@ -6313,9 +6297,9 @@
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
-      <c r="H174" s="14"/>
+      <c r="H174" s="13"/>
       <c r="I174" s="4"/>
-      <c r="J174" s="14"/>
+      <c r="J174" s="13"/>
       <c r="K174" s="4"/>
       <c r="L174" s="4"/>
     </row>
@@ -6324,9 +6308,9 @@
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
-      <c r="H175" s="14"/>
+      <c r="H175" s="13"/>
       <c r="I175" s="4"/>
-      <c r="J175" s="14"/>
+      <c r="J175" s="13"/>
       <c r="K175" s="4"/>
       <c r="L175" s="4"/>
     </row>
@@ -6335,9 +6319,9 @@
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
-      <c r="H176" s="14"/>
+      <c r="H176" s="13"/>
       <c r="I176" s="4"/>
-      <c r="J176" s="14"/>
+      <c r="J176" s="13"/>
       <c r="K176" s="4"/>
       <c r="L176" s="4"/>
     </row>
@@ -6346,9 +6330,9 @@
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
-      <c r="H177" s="14"/>
+      <c r="H177" s="13"/>
       <c r="I177" s="4"/>
-      <c r="J177" s="14"/>
+      <c r="J177" s="13"/>
       <c r="K177" s="4"/>
       <c r="L177" s="4"/>
     </row>
@@ -6357,9 +6341,9 @@
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
-      <c r="H178" s="14"/>
+      <c r="H178" s="13"/>
       <c r="I178" s="4"/>
-      <c r="J178" s="14"/>
+      <c r="J178" s="13"/>
       <c r="K178" s="4"/>
       <c r="L178" s="4"/>
     </row>
@@ -6368,9 +6352,9 @@
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
-      <c r="H179" s="14"/>
+      <c r="H179" s="13"/>
       <c r="I179" s="4"/>
-      <c r="J179" s="14"/>
+      <c r="J179" s="13"/>
       <c r="K179" s="4"/>
       <c r="L179" s="4"/>
     </row>
@@ -6379,9 +6363,9 @@
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
-      <c r="H180" s="14"/>
+      <c r="H180" s="13"/>
       <c r="I180" s="4"/>
-      <c r="J180" s="14"/>
+      <c r="J180" s="13"/>
       <c r="K180" s="4"/>
       <c r="L180" s="4"/>
     </row>
@@ -6390,9 +6374,9 @@
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
-      <c r="H181" s="14"/>
+      <c r="H181" s="13"/>
       <c r="I181" s="4"/>
-      <c r="J181" s="14"/>
+      <c r="J181" s="13"/>
       <c r="K181" s="4"/>
       <c r="L181" s="4"/>
     </row>
@@ -6401,9 +6385,9 @@
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
-      <c r="H182" s="14"/>
+      <c r="H182" s="13"/>
       <c r="I182" s="4"/>
-      <c r="J182" s="14"/>
+      <c r="J182" s="13"/>
       <c r="K182" s="4"/>
       <c r="L182" s="4"/>
     </row>
@@ -6412,9 +6396,9 @@
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
-      <c r="H183" s="14"/>
+      <c r="H183" s="13"/>
       <c r="I183" s="4"/>
-      <c r="J183" s="14"/>
+      <c r="J183" s="13"/>
       <c r="K183" s="4"/>
       <c r="L183" s="4"/>
     </row>
@@ -6423,9 +6407,9 @@
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
-      <c r="H184" s="14"/>
+      <c r="H184" s="13"/>
       <c r="I184" s="4"/>
-      <c r="J184" s="14"/>
+      <c r="J184" s="13"/>
       <c r="K184" s="4"/>
       <c r="L184" s="4"/>
     </row>
@@ -6434,9 +6418,9 @@
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
-      <c r="H185" s="14"/>
+      <c r="H185" s="13"/>
       <c r="I185" s="4"/>
-      <c r="J185" s="14"/>
+      <c r="J185" s="13"/>
       <c r="K185" s="4"/>
       <c r="L185" s="4"/>
     </row>
@@ -6445,9 +6429,9 @@
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
-      <c r="H186" s="14"/>
+      <c r="H186" s="13"/>
       <c r="I186" s="4"/>
-      <c r="J186" s="14"/>
+      <c r="J186" s="13"/>
       <c r="K186" s="4"/>
       <c r="L186" s="4"/>
     </row>
@@ -6456,9 +6440,9 @@
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
-      <c r="H187" s="14"/>
+      <c r="H187" s="13"/>
       <c r="I187" s="4"/>
-      <c r="J187" s="14"/>
+      <c r="J187" s="13"/>
       <c r="K187" s="4"/>
       <c r="L187" s="4"/>
     </row>
@@ -6467,9 +6451,9 @@
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
-      <c r="H188" s="14"/>
+      <c r="H188" s="13"/>
       <c r="I188" s="4"/>
-      <c r="J188" s="14"/>
+      <c r="J188" s="13"/>
       <c r="K188" s="4"/>
       <c r="L188" s="4"/>
     </row>
@@ -6478,9 +6462,9 @@
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
-      <c r="H189" s="14"/>
+      <c r="H189" s="13"/>
       <c r="I189" s="4"/>
-      <c r="J189" s="14"/>
+      <c r="J189" s="13"/>
       <c r="K189" s="4"/>
       <c r="L189" s="4"/>
     </row>
@@ -6489,9 +6473,9 @@
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
-      <c r="H190" s="14"/>
+      <c r="H190" s="13"/>
       <c r="I190" s="4"/>
-      <c r="J190" s="14"/>
+      <c r="J190" s="13"/>
       <c r="K190" s="4"/>
       <c r="L190" s="4"/>
     </row>
@@ -6500,9 +6484,9 @@
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
-      <c r="H191" s="14"/>
+      <c r="H191" s="13"/>
       <c r="I191" s="4"/>
-      <c r="J191" s="14"/>
+      <c r="J191" s="13"/>
       <c r="K191" s="4"/>
       <c r="L191" s="4"/>
     </row>
@@ -6511,9 +6495,9 @@
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
-      <c r="H192" s="14"/>
+      <c r="H192" s="13"/>
       <c r="I192" s="4"/>
-      <c r="J192" s="14"/>
+      <c r="J192" s="13"/>
       <c r="K192" s="4"/>
       <c r="L192" s="4"/>
     </row>
@@ -6522,9 +6506,9 @@
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
-      <c r="H193" s="14"/>
+      <c r="H193" s="13"/>
       <c r="I193" s="4"/>
-      <c r="J193" s="14"/>
+      <c r="J193" s="13"/>
       <c r="K193" s="4"/>
       <c r="L193" s="4"/>
     </row>
@@ -6533,9 +6517,9 @@
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
-      <c r="H194" s="14"/>
+      <c r="H194" s="13"/>
       <c r="I194" s="4"/>
-      <c r="J194" s="14"/>
+      <c r="J194" s="13"/>
       <c r="K194" s="4"/>
       <c r="L194" s="4"/>
     </row>
@@ -6544,9 +6528,9 @@
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
-      <c r="H195" s="14"/>
+      <c r="H195" s="13"/>
       <c r="I195" s="4"/>
-      <c r="J195" s="14"/>
+      <c r="J195" s="13"/>
       <c r="K195" s="4"/>
       <c r="L195" s="4"/>
     </row>
@@ -6555,9 +6539,9 @@
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
-      <c r="H196" s="14"/>
+      <c r="H196" s="13"/>
       <c r="I196" s="4"/>
-      <c r="J196" s="14"/>
+      <c r="J196" s="13"/>
       <c r="K196" s="4"/>
       <c r="L196" s="4"/>
     </row>
@@ -6566,9 +6550,9 @@
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
-      <c r="H197" s="14"/>
+      <c r="H197" s="13"/>
       <c r="I197" s="4"/>
-      <c r="J197" s="14"/>
+      <c r="J197" s="13"/>
       <c r="K197" s="4"/>
       <c r="L197" s="4"/>
     </row>
@@ -6577,9 +6561,9 @@
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
-      <c r="H198" s="14"/>
+      <c r="H198" s="13"/>
       <c r="I198" s="4"/>
-      <c r="J198" s="14"/>
+      <c r="J198" s="13"/>
       <c r="K198" s="4"/>
       <c r="L198" s="4"/>
     </row>
@@ -6588,9 +6572,9 @@
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
       <c r="G199" s="4"/>
-      <c r="H199" s="14"/>
+      <c r="H199" s="13"/>
       <c r="I199" s="4"/>
-      <c r="J199" s="14"/>
+      <c r="J199" s="13"/>
       <c r="K199" s="4"/>
       <c r="L199" s="4"/>
     </row>
@@ -6599,9 +6583,9 @@
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
       <c r="G200" s="4"/>
-      <c r="H200" s="14"/>
+      <c r="H200" s="13"/>
       <c r="I200" s="4"/>
-      <c r="J200" s="14"/>
+      <c r="J200" s="13"/>
       <c r="K200" s="4"/>
       <c r="L200" s="4"/>
     </row>
@@ -6610,9 +6594,9 @@
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
       <c r="G201" s="4"/>
-      <c r="H201" s="14"/>
+      <c r="H201" s="13"/>
       <c r="I201" s="4"/>
-      <c r="J201" s="14"/>
+      <c r="J201" s="13"/>
       <c r="K201" s="4"/>
       <c r="L201" s="4"/>
     </row>
@@ -6621,9 +6605,9 @@
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
-      <c r="H202" s="14"/>
+      <c r="H202" s="13"/>
       <c r="I202" s="4"/>
-      <c r="J202" s="14"/>
+      <c r="J202" s="13"/>
       <c r="K202" s="4"/>
       <c r="L202" s="4"/>
     </row>
@@ -6632,9 +6616,9 @@
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
       <c r="G203" s="4"/>
-      <c r="H203" s="14"/>
+      <c r="H203" s="13"/>
       <c r="I203" s="4"/>
-      <c r="J203" s="14"/>
+      <c r="J203" s="13"/>
       <c r="K203" s="4"/>
       <c r="L203" s="4"/>
     </row>
@@ -6643,9 +6627,9 @@
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
-      <c r="H204" s="14"/>
+      <c r="H204" s="13"/>
       <c r="I204" s="4"/>
-      <c r="J204" s="14"/>
+      <c r="J204" s="13"/>
       <c r="K204" s="4"/>
       <c r="L204" s="4"/>
     </row>
@@ -6654,9 +6638,9 @@
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
-      <c r="H205" s="14"/>
+      <c r="H205" s="13"/>
       <c r="I205" s="4"/>
-      <c r="J205" s="14"/>
+      <c r="J205" s="13"/>
       <c r="K205" s="4"/>
       <c r="L205" s="4"/>
     </row>
@@ -6665,9 +6649,9 @@
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
       <c r="G206" s="4"/>
-      <c r="H206" s="14"/>
+      <c r="H206" s="13"/>
       <c r="I206" s="4"/>
-      <c r="J206" s="14"/>
+      <c r="J206" s="13"/>
       <c r="K206" s="4"/>
       <c r="L206" s="4"/>
     </row>
@@ -6676,9 +6660,9 @@
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
-      <c r="H207" s="14"/>
+      <c r="H207" s="13"/>
       <c r="I207" s="4"/>
-      <c r="J207" s="14"/>
+      <c r="J207" s="13"/>
       <c r="K207" s="4"/>
       <c r="L207" s="4"/>
     </row>
@@ -6687,9 +6671,9 @@
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
-      <c r="H208" s="14"/>
+      <c r="H208" s="13"/>
       <c r="I208" s="4"/>
-      <c r="J208" s="14"/>
+      <c r="J208" s="13"/>
       <c r="K208" s="4"/>
       <c r="L208" s="4"/>
     </row>
@@ -6698,9 +6682,9 @@
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
       <c r="G209" s="4"/>
-      <c r="H209" s="14"/>
+      <c r="H209" s="13"/>
       <c r="I209" s="4"/>
-      <c r="J209" s="14"/>
+      <c r="J209" s="13"/>
       <c r="K209" s="4"/>
       <c r="L209" s="4"/>
     </row>
@@ -6709,9 +6693,9 @@
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
       <c r="G210" s="4"/>
-      <c r="H210" s="14"/>
+      <c r="H210" s="13"/>
       <c r="I210" s="4"/>
-      <c r="J210" s="14"/>
+      <c r="J210" s="13"/>
       <c r="K210" s="4"/>
       <c r="L210" s="4"/>
     </row>
@@ -6720,9 +6704,9 @@
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
-      <c r="H211" s="14"/>
+      <c r="H211" s="13"/>
       <c r="I211" s="4"/>
-      <c r="J211" s="14"/>
+      <c r="J211" s="13"/>
       <c r="K211" s="4"/>
       <c r="L211" s="4"/>
     </row>
@@ -6731,9 +6715,9 @@
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
       <c r="G212" s="4"/>
-      <c r="H212" s="14"/>
+      <c r="H212" s="13"/>
       <c r="I212" s="4"/>
-      <c r="J212" s="14"/>
+      <c r="J212" s="13"/>
       <c r="K212" s="4"/>
       <c r="L212" s="4"/>
     </row>
@@ -6742,9 +6726,9 @@
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
-      <c r="H213" s="14"/>
+      <c r="H213" s="13"/>
       <c r="I213" s="4"/>
-      <c r="J213" s="14"/>
+      <c r="J213" s="13"/>
       <c r="K213" s="4"/>
       <c r="L213" s="4"/>
     </row>
@@ -6753,9 +6737,9 @@
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
-      <c r="H214" s="14"/>
+      <c r="H214" s="13"/>
       <c r="I214" s="4"/>
-      <c r="J214" s="14"/>
+      <c r="J214" s="13"/>
       <c r="K214" s="4"/>
       <c r="L214" s="4"/>
     </row>
@@ -6764,9 +6748,9 @@
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
       <c r="G215" s="4"/>
-      <c r="H215" s="14"/>
+      <c r="H215" s="13"/>
       <c r="I215" s="4"/>
-      <c r="J215" s="14"/>
+      <c r="J215" s="13"/>
       <c r="K215" s="4"/>
       <c r="L215" s="4"/>
     </row>
@@ -6775,9 +6759,9 @@
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
-      <c r="H216" s="14"/>
+      <c r="H216" s="13"/>
       <c r="I216" s="4"/>
-      <c r="J216" s="14"/>
+      <c r="J216" s="13"/>
       <c r="K216" s="4"/>
       <c r="L216" s="4"/>
     </row>
@@ -6786,9 +6770,9 @@
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
       <c r="G217" s="4"/>
-      <c r="H217" s="14"/>
+      <c r="H217" s="13"/>
       <c r="I217" s="4"/>
-      <c r="J217" s="14"/>
+      <c r="J217" s="13"/>
       <c r="K217" s="4"/>
       <c r="L217" s="4"/>
     </row>
@@ -6797,9 +6781,9 @@
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
       <c r="G218" s="4"/>
-      <c r="H218" s="14"/>
+      <c r="H218" s="13"/>
       <c r="I218" s="4"/>
-      <c r="J218" s="14"/>
+      <c r="J218" s="13"/>
       <c r="K218" s="4"/>
       <c r="L218" s="4"/>
     </row>
@@ -6808,9 +6792,9 @@
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
       <c r="G219" s="4"/>
-      <c r="H219" s="14"/>
+      <c r="H219" s="13"/>
       <c r="I219" s="4"/>
-      <c r="J219" s="14"/>
+      <c r="J219" s="13"/>
       <c r="K219" s="4"/>
       <c r="L219" s="4"/>
     </row>
@@ -6819,9 +6803,9 @@
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
-      <c r="H220" s="14"/>
+      <c r="H220" s="13"/>
       <c r="I220" s="4"/>
-      <c r="J220" s="14"/>
+      <c r="J220" s="13"/>
       <c r="K220" s="4"/>
       <c r="L220" s="4"/>
     </row>
@@ -6830,9 +6814,9 @@
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
-      <c r="H221" s="14"/>
+      <c r="H221" s="13"/>
       <c r="I221" s="4"/>
-      <c r="J221" s="14"/>
+      <c r="J221" s="13"/>
       <c r="K221" s="4"/>
       <c r="L221" s="4"/>
     </row>
@@ -6841,9 +6825,9 @@
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
-      <c r="H222" s="14"/>
+      <c r="H222" s="13"/>
       <c r="I222" s="4"/>
-      <c r="J222" s="14"/>
+      <c r="J222" s="13"/>
       <c r="K222" s="4"/>
       <c r="L222" s="4"/>
     </row>
@@ -6852,9 +6836,9 @@
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
       <c r="G223" s="4"/>
-      <c r="H223" s="14"/>
+      <c r="H223" s="13"/>
       <c r="I223" s="4"/>
-      <c r="J223" s="14"/>
+      <c r="J223" s="13"/>
       <c r="K223" s="4"/>
       <c r="L223" s="4"/>
     </row>
@@ -6863,9 +6847,9 @@
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
       <c r="G224" s="4"/>
-      <c r="H224" s="14"/>
+      <c r="H224" s="13"/>
       <c r="I224" s="4"/>
-      <c r="J224" s="14"/>
+      <c r="J224" s="13"/>
       <c r="K224" s="4"/>
       <c r="L224" s="4"/>
     </row>
@@ -6874,9 +6858,9 @@
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
       <c r="G225" s="4"/>
-      <c r="H225" s="14"/>
+      <c r="H225" s="13"/>
       <c r="I225" s="4"/>
-      <c r="J225" s="14"/>
+      <c r="J225" s="13"/>
       <c r="K225" s="4"/>
       <c r="L225" s="4"/>
     </row>
@@ -6885,9 +6869,9 @@
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
       <c r="G226" s="4"/>
-      <c r="H226" s="14"/>
+      <c r="H226" s="13"/>
       <c r="I226" s="4"/>
-      <c r="J226" s="14"/>
+      <c r="J226" s="13"/>
       <c r="K226" s="4"/>
       <c r="L226" s="4"/>
     </row>
@@ -6896,9 +6880,9 @@
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
       <c r="G227" s="4"/>
-      <c r="H227" s="14"/>
+      <c r="H227" s="13"/>
       <c r="I227" s="4"/>
-      <c r="J227" s="14"/>
+      <c r="J227" s="13"/>
       <c r="K227" s="4"/>
       <c r="L227" s="4"/>
     </row>
@@ -6907,9 +6891,9 @@
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
       <c r="G228" s="4"/>
-      <c r="H228" s="14"/>
+      <c r="H228" s="13"/>
       <c r="I228" s="4"/>
-      <c r="J228" s="14"/>
+      <c r="J228" s="13"/>
       <c r="K228" s="4"/>
       <c r="L228" s="4"/>
     </row>
@@ -6918,9 +6902,9 @@
       <c r="E229" s="4"/>
       <c r="F229" s="4"/>
       <c r="G229" s="4"/>
-      <c r="H229" s="14"/>
+      <c r="H229" s="13"/>
       <c r="I229" s="4"/>
-      <c r="J229" s="14"/>
+      <c r="J229" s="13"/>
       <c r="K229" s="4"/>
       <c r="L229" s="4"/>
     </row>
@@ -6929,9 +6913,9 @@
       <c r="E230" s="4"/>
       <c r="F230" s="4"/>
       <c r="G230" s="4"/>
-      <c r="H230" s="14"/>
+      <c r="H230" s="13"/>
       <c r="I230" s="4"/>
-      <c r="J230" s="14"/>
+      <c r="J230" s="13"/>
       <c r="K230" s="4"/>
       <c r="L230" s="4"/>
     </row>
@@ -6940,9 +6924,9 @@
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
       <c r="G231" s="4"/>
-      <c r="H231" s="14"/>
+      <c r="H231" s="13"/>
       <c r="I231" s="4"/>
-      <c r="J231" s="14"/>
+      <c r="J231" s="13"/>
       <c r="K231" s="4"/>
       <c r="L231" s="4"/>
     </row>
@@ -6951,9 +6935,9 @@
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
       <c r="G232" s="4"/>
-      <c r="H232" s="14"/>
+      <c r="H232" s="13"/>
       <c r="I232" s="4"/>
-      <c r="J232" s="14"/>
+      <c r="J232" s="13"/>
       <c r="K232" s="4"/>
       <c r="L232" s="4"/>
     </row>
@@ -6962,9 +6946,9 @@
       <c r="E233" s="4"/>
       <c r="F233" s="4"/>
       <c r="G233" s="4"/>
-      <c r="H233" s="14"/>
+      <c r="H233" s="13"/>
       <c r="I233" s="4"/>
-      <c r="J233" s="14"/>
+      <c r="J233" s="13"/>
       <c r="K233" s="4"/>
       <c r="L233" s="4"/>
     </row>
@@ -6973,9 +6957,9 @@
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
       <c r="G234" s="4"/>
-      <c r="H234" s="14"/>
+      <c r="H234" s="13"/>
       <c r="I234" s="4"/>
-      <c r="J234" s="14"/>
+      <c r="J234" s="13"/>
       <c r="K234" s="4"/>
       <c r="L234" s="4"/>
     </row>
@@ -6984,9 +6968,9 @@
       <c r="E235" s="4"/>
       <c r="F235" s="4"/>
       <c r="G235" s="4"/>
-      <c r="H235" s="14"/>
+      <c r="H235" s="13"/>
       <c r="I235" s="4"/>
-      <c r="J235" s="14"/>
+      <c r="J235" s="13"/>
       <c r="K235" s="4"/>
       <c r="L235" s="4"/>
     </row>
@@ -6995,9 +6979,9 @@
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
       <c r="G236" s="4"/>
-      <c r="H236" s="14"/>
+      <c r="H236" s="13"/>
       <c r="I236" s="4"/>
-      <c r="J236" s="14"/>
+      <c r="J236" s="13"/>
       <c r="K236" s="4"/>
       <c r="L236" s="4"/>
     </row>
@@ -7006,9 +6990,9 @@
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
       <c r="G237" s="4"/>
-      <c r="H237" s="14"/>
+      <c r="H237" s="13"/>
       <c r="I237" s="4"/>
-      <c r="J237" s="14"/>
+      <c r="J237" s="13"/>
       <c r="K237" s="4"/>
       <c r="L237" s="4"/>
     </row>
@@ -7017,9 +7001,9 @@
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
       <c r="G238" s="4"/>
-      <c r="H238" s="14"/>
+      <c r="H238" s="13"/>
       <c r="I238" s="4"/>
-      <c r="J238" s="14"/>
+      <c r="J238" s="13"/>
       <c r="K238" s="4"/>
       <c r="L238" s="4"/>
     </row>
@@ -7028,9 +7012,9 @@
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
       <c r="G239" s="4"/>
-      <c r="H239" s="14"/>
+      <c r="H239" s="13"/>
       <c r="I239" s="4"/>
-      <c r="J239" s="14"/>
+      <c r="J239" s="13"/>
       <c r="K239" s="4"/>
       <c r="L239" s="4"/>
     </row>
@@ -7039,9 +7023,9 @@
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
       <c r="G240" s="4"/>
-      <c r="H240" s="14"/>
+      <c r="H240" s="13"/>
       <c r="I240" s="4"/>
-      <c r="J240" s="14"/>
+      <c r="J240" s="13"/>
       <c r="K240" s="4"/>
       <c r="L240" s="4"/>
     </row>
@@ -7050,9 +7034,9 @@
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
       <c r="G241" s="4"/>
-      <c r="H241" s="14"/>
+      <c r="H241" s="13"/>
       <c r="I241" s="4"/>
-      <c r="J241" s="14"/>
+      <c r="J241" s="13"/>
       <c r="K241" s="4"/>
       <c r="L241" s="4"/>
     </row>
@@ -7061,9 +7045,9 @@
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
       <c r="G242" s="4"/>
-      <c r="H242" s="14"/>
+      <c r="H242" s="13"/>
       <c r="I242" s="4"/>
-      <c r="J242" s="14"/>
+      <c r="J242" s="13"/>
       <c r="K242" s="4"/>
       <c r="L242" s="4"/>
     </row>
@@ -7072,9 +7056,9 @@
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
       <c r="G243" s="4"/>
-      <c r="H243" s="14"/>
+      <c r="H243" s="13"/>
       <c r="I243" s="4"/>
-      <c r="J243" s="14"/>
+      <c r="J243" s="13"/>
       <c r="K243" s="4"/>
       <c r="L243" s="4"/>
     </row>
@@ -7083,9 +7067,9 @@
       <c r="E244" s="4"/>
       <c r="F244" s="4"/>
       <c r="G244" s="4"/>
-      <c r="H244" s="14"/>
+      <c r="H244" s="13"/>
       <c r="I244" s="4"/>
-      <c r="J244" s="14"/>
+      <c r="J244" s="13"/>
       <c r="K244" s="4"/>
       <c r="L244" s="4"/>
     </row>
@@ -7094,9 +7078,9 @@
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
       <c r="G245" s="4"/>
-      <c r="H245" s="14"/>
+      <c r="H245" s="13"/>
       <c r="I245" s="4"/>
-      <c r="J245" s="14"/>
+      <c r="J245" s="13"/>
       <c r="K245" s="4"/>
       <c r="L245" s="4"/>
     </row>
@@ -7105,9 +7089,9 @@
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
       <c r="G246" s="4"/>
-      <c r="H246" s="14"/>
+      <c r="H246" s="13"/>
       <c r="I246" s="4"/>
-      <c r="J246" s="14"/>
+      <c r="J246" s="13"/>
       <c r="K246" s="4"/>
       <c r="L246" s="4"/>
     </row>
@@ -7116,9 +7100,9 @@
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
       <c r="G247" s="4"/>
-      <c r="H247" s="14"/>
+      <c r="H247" s="13"/>
       <c r="I247" s="4"/>
-      <c r="J247" s="14"/>
+      <c r="J247" s="13"/>
       <c r="K247" s="4"/>
       <c r="L247" s="4"/>
     </row>
@@ -7127,9 +7111,9 @@
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="4"/>
-      <c r="H248" s="14"/>
+      <c r="H248" s="13"/>
       <c r="I248" s="4"/>
-      <c r="J248" s="14"/>
+      <c r="J248" s="13"/>
       <c r="K248" s="4"/>
       <c r="L248" s="4"/>
     </row>
@@ -7138,9 +7122,9 @@
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
       <c r="G249" s="4"/>
-      <c r="H249" s="14"/>
+      <c r="H249" s="13"/>
       <c r="I249" s="4"/>
-      <c r="J249" s="14"/>
+      <c r="J249" s="13"/>
       <c r="K249" s="4"/>
       <c r="L249" s="4"/>
     </row>
@@ -7149,9 +7133,9 @@
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
       <c r="G250" s="4"/>
-      <c r="H250" s="14"/>
+      <c r="H250" s="13"/>
       <c r="I250" s="4"/>
-      <c r="J250" s="14"/>
+      <c r="J250" s="13"/>
       <c r="K250" s="4"/>
       <c r="L250" s="4"/>
     </row>
@@ -7160,9 +7144,9 @@
       <c r="E251" s="4"/>
       <c r="F251" s="4"/>
       <c r="G251" s="4"/>
-      <c r="H251" s="14"/>
+      <c r="H251" s="13"/>
       <c r="I251" s="4"/>
-      <c r="J251" s="14"/>
+      <c r="J251" s="13"/>
       <c r="K251" s="4"/>
       <c r="L251" s="4"/>
     </row>
@@ -7171,9 +7155,9 @@
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
       <c r="G252" s="4"/>
-      <c r="H252" s="14"/>
+      <c r="H252" s="13"/>
       <c r="I252" s="4"/>
-      <c r="J252" s="14"/>
+      <c r="J252" s="13"/>
       <c r="K252" s="4"/>
       <c r="L252" s="4"/>
     </row>
@@ -7182,9 +7166,9 @@
       <c r="E253" s="4"/>
       <c r="F253" s="4"/>
       <c r="G253" s="4"/>
-      <c r="H253" s="14"/>
+      <c r="H253" s="13"/>
       <c r="I253" s="4"/>
-      <c r="J253" s="14"/>
+      <c r="J253" s="13"/>
       <c r="K253" s="4"/>
       <c r="L253" s="4"/>
     </row>
@@ -7193,9 +7177,9 @@
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
       <c r="G254" s="4"/>
-      <c r="H254" s="14"/>
+      <c r="H254" s="13"/>
       <c r="I254" s="4"/>
-      <c r="J254" s="14"/>
+      <c r="J254" s="13"/>
       <c r="K254" s="4"/>
       <c r="L254" s="4"/>
     </row>
@@ -7204,9 +7188,9 @@
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
       <c r="G255" s="4"/>
-      <c r="H255" s="14"/>
+      <c r="H255" s="13"/>
       <c r="I255" s="4"/>
-      <c r="J255" s="14"/>
+      <c r="J255" s="13"/>
       <c r="K255" s="4"/>
       <c r="L255" s="4"/>
     </row>
@@ -7215,9 +7199,9 @@
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
       <c r="G256" s="4"/>
-      <c r="H256" s="14"/>
+      <c r="H256" s="13"/>
       <c r="I256" s="4"/>
-      <c r="J256" s="14"/>
+      <c r="J256" s="13"/>
       <c r="K256" s="4"/>
       <c r="L256" s="4"/>
     </row>
@@ -7226,9 +7210,9 @@
       <c r="E257" s="4"/>
       <c r="F257" s="4"/>
       <c r="G257" s="4"/>
-      <c r="H257" s="14"/>
+      <c r="H257" s="13"/>
       <c r="I257" s="4"/>
-      <c r="J257" s="14"/>
+      <c r="J257" s="13"/>
       <c r="K257" s="4"/>
       <c r="L257" s="4"/>
     </row>
@@ -7237,9 +7221,9 @@
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
       <c r="G258" s="4"/>
-      <c r="H258" s="14"/>
+      <c r="H258" s="13"/>
       <c r="I258" s="4"/>
-      <c r="J258" s="14"/>
+      <c r="J258" s="13"/>
       <c r="K258" s="4"/>
       <c r="L258" s="4"/>
     </row>
@@ -7248,9 +7232,9 @@
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
       <c r="G259" s="4"/>
-      <c r="H259" s="14"/>
+      <c r="H259" s="13"/>
       <c r="I259" s="4"/>
-      <c r="J259" s="14"/>
+      <c r="J259" s="13"/>
       <c r="K259" s="4"/>
       <c r="L259" s="4"/>
     </row>
@@ -7259,9 +7243,9 @@
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
       <c r="G260" s="4"/>
-      <c r="H260" s="14"/>
+      <c r="H260" s="13"/>
       <c r="I260" s="4"/>
-      <c r="J260" s="14"/>
+      <c r="J260" s="13"/>
       <c r="K260" s="4"/>
       <c r="L260" s="4"/>
     </row>
@@ -7270,9 +7254,9 @@
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
       <c r="G261" s="4"/>
-      <c r="H261" s="14"/>
+      <c r="H261" s="13"/>
       <c r="I261" s="4"/>
-      <c r="J261" s="14"/>
+      <c r="J261" s="13"/>
       <c r="K261" s="4"/>
       <c r="L261" s="4"/>
     </row>
@@ -7281,9 +7265,9 @@
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
       <c r="G262" s="4"/>
-      <c r="H262" s="14"/>
+      <c r="H262" s="13"/>
       <c r="I262" s="4"/>
-      <c r="J262" s="14"/>
+      <c r="J262" s="13"/>
       <c r="K262" s="4"/>
       <c r="L262" s="4"/>
     </row>
@@ -7292,9 +7276,9 @@
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
       <c r="G263" s="4"/>
-      <c r="H263" s="14"/>
+      <c r="H263" s="13"/>
       <c r="I263" s="4"/>
-      <c r="J263" s="14"/>
+      <c r="J263" s="13"/>
       <c r="K263" s="4"/>
       <c r="L263" s="4"/>
     </row>
@@ -7303,9 +7287,9 @@
       <c r="E264" s="4"/>
       <c r="F264" s="4"/>
       <c r="G264" s="4"/>
-      <c r="H264" s="14"/>
+      <c r="H264" s="13"/>
       <c r="I264" s="4"/>
-      <c r="J264" s="14"/>
+      <c r="J264" s="13"/>
       <c r="K264" s="4"/>
       <c r="L264" s="4"/>
     </row>
@@ -7314,9 +7298,9 @@
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
       <c r="G265" s="4"/>
-      <c r="H265" s="14"/>
+      <c r="H265" s="13"/>
       <c r="I265" s="4"/>
-      <c r="J265" s="14"/>
+      <c r="J265" s="13"/>
       <c r="K265" s="4"/>
       <c r="L265" s="4"/>
     </row>
@@ -7325,9 +7309,9 @@
       <c r="E266" s="4"/>
       <c r="F266" s="4"/>
       <c r="G266" s="4"/>
-      <c r="H266" s="14"/>
+      <c r="H266" s="13"/>
       <c r="I266" s="4"/>
-      <c r="J266" s="14"/>
+      <c r="J266" s="13"/>
       <c r="K266" s="4"/>
       <c r="L266" s="4"/>
     </row>
@@ -7336,9 +7320,9 @@
       <c r="E267" s="4"/>
       <c r="F267" s="4"/>
       <c r="G267" s="4"/>
-      <c r="H267" s="14"/>
+      <c r="H267" s="13"/>
       <c r="I267" s="4"/>
-      <c r="J267" s="14"/>
+      <c r="J267" s="13"/>
       <c r="K267" s="4"/>
       <c r="L267" s="4"/>
     </row>
@@ -7347,9 +7331,9 @@
       <c r="E268" s="4"/>
       <c r="F268" s="4"/>
       <c r="G268" s="4"/>
-      <c r="H268" s="14"/>
+      <c r="H268" s="13"/>
       <c r="I268" s="4"/>
-      <c r="J268" s="14"/>
+      <c r="J268" s="13"/>
       <c r="K268" s="4"/>
       <c r="L268" s="4"/>
     </row>
@@ -7358,9 +7342,9 @@
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
       <c r="G269" s="4"/>
-      <c r="H269" s="14"/>
+      <c r="H269" s="13"/>
       <c r="I269" s="4"/>
-      <c r="J269" s="14"/>
+      <c r="J269" s="13"/>
       <c r="K269" s="4"/>
       <c r="L269" s="4"/>
     </row>
@@ -7369,9 +7353,9 @@
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
       <c r="G270" s="4"/>
-      <c r="H270" s="14"/>
+      <c r="H270" s="13"/>
       <c r="I270" s="4"/>
-      <c r="J270" s="14"/>
+      <c r="J270" s="13"/>
       <c r="K270" s="4"/>
       <c r="L270" s="4"/>
     </row>
@@ -7380,9 +7364,9 @@
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
       <c r="G271" s="4"/>
-      <c r="H271" s="14"/>
+      <c r="H271" s="13"/>
       <c r="I271" s="4"/>
-      <c r="J271" s="14"/>
+      <c r="J271" s="13"/>
       <c r="K271" s="4"/>
       <c r="L271" s="4"/>
     </row>
@@ -7391,9 +7375,9 @@
       <c r="E272" s="4"/>
       <c r="F272" s="4"/>
       <c r="G272" s="4"/>
-      <c r="H272" s="14"/>
+      <c r="H272" s="13"/>
       <c r="I272" s="4"/>
-      <c r="J272" s="14"/>
+      <c r="J272" s="13"/>
       <c r="K272" s="4"/>
       <c r="L272" s="4"/>
     </row>
@@ -7402,9 +7386,9 @@
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
       <c r="G273" s="4"/>
-      <c r="H273" s="14"/>
+      <c r="H273" s="13"/>
       <c r="I273" s="4"/>
-      <c r="J273" s="14"/>
+      <c r="J273" s="13"/>
       <c r="K273" s="4"/>
       <c r="L273" s="4"/>
     </row>
@@ -7413,9 +7397,9 @@
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
       <c r="G274" s="4"/>
-      <c r="H274" s="14"/>
+      <c r="H274" s="13"/>
       <c r="I274" s="4"/>
-      <c r="J274" s="14"/>
+      <c r="J274" s="13"/>
       <c r="K274" s="4"/>
       <c r="L274" s="4"/>
     </row>
@@ -7424,9 +7408,9 @@
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
       <c r="G275" s="4"/>
-      <c r="H275" s="14"/>
+      <c r="H275" s="13"/>
       <c r="I275" s="4"/>
-      <c r="J275" s="14"/>
+      <c r="J275" s="13"/>
       <c r="K275" s="4"/>
       <c r="L275" s="4"/>
     </row>
@@ -7435,9 +7419,9 @@
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
       <c r="G276" s="4"/>
-      <c r="H276" s="14"/>
+      <c r="H276" s="13"/>
       <c r="I276" s="4"/>
-      <c r="J276" s="14"/>
+      <c r="J276" s="13"/>
       <c r="K276" s="4"/>
       <c r="L276" s="4"/>
     </row>
@@ -7446,9 +7430,9 @@
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
       <c r="G277" s="4"/>
-      <c r="H277" s="14"/>
+      <c r="H277" s="13"/>
       <c r="I277" s="4"/>
-      <c r="J277" s="14"/>
+      <c r="J277" s="13"/>
       <c r="K277" s="4"/>
       <c r="L277" s="4"/>
     </row>
@@ -7457,9 +7441,9 @@
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
       <c r="G278" s="4"/>
-      <c r="H278" s="14"/>
+      <c r="H278" s="13"/>
       <c r="I278" s="4"/>
-      <c r="J278" s="14"/>
+      <c r="J278" s="13"/>
       <c r="K278" s="4"/>
       <c r="L278" s="4"/>
     </row>
@@ -7468,9 +7452,9 @@
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
       <c r="G279" s="4"/>
-      <c r="H279" s="14"/>
+      <c r="H279" s="13"/>
       <c r="I279" s="4"/>
-      <c r="J279" s="14"/>
+      <c r="J279" s="13"/>
       <c r="K279" s="4"/>
       <c r="L279" s="4"/>
     </row>
@@ -7479,9 +7463,9 @@
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
       <c r="G280" s="4"/>
-      <c r="H280" s="14"/>
+      <c r="H280" s="13"/>
       <c r="I280" s="4"/>
-      <c r="J280" s="14"/>
+      <c r="J280" s="13"/>
       <c r="K280" s="4"/>
       <c r="L280" s="4"/>
     </row>
@@ -7490,9 +7474,9 @@
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
       <c r="G281" s="4"/>
-      <c r="H281" s="14"/>
+      <c r="H281" s="13"/>
       <c r="I281" s="4"/>
-      <c r="J281" s="14"/>
+      <c r="J281" s="13"/>
       <c r="K281" s="4"/>
       <c r="L281" s="4"/>
     </row>
@@ -7501,9 +7485,9 @@
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
       <c r="G282" s="4"/>
-      <c r="H282" s="14"/>
+      <c r="H282" s="13"/>
       <c r="I282" s="4"/>
-      <c r="J282" s="14"/>
+      <c r="J282" s="13"/>
       <c r="K282" s="4"/>
       <c r="L282" s="4"/>
     </row>
@@ -7512,9 +7496,9 @@
       <c r="E283" s="4"/>
       <c r="F283" s="4"/>
       <c r="G283" s="4"/>
-      <c r="H283" s="14"/>
+      <c r="H283" s="13"/>
       <c r="I283" s="4"/>
-      <c r="J283" s="14"/>
+      <c r="J283" s="13"/>
       <c r="K283" s="4"/>
       <c r="L283" s="4"/>
     </row>
@@ -7523,9 +7507,9 @@
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
       <c r="G284" s="4"/>
-      <c r="H284" s="14"/>
+      <c r="H284" s="13"/>
       <c r="I284" s="4"/>
-      <c r="J284" s="14"/>
+      <c r="J284" s="13"/>
       <c r="K284" s="4"/>
       <c r="L284" s="4"/>
     </row>
@@ -7534,9 +7518,9 @@
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
       <c r="G285" s="4"/>
-      <c r="H285" s="14"/>
+      <c r="H285" s="13"/>
       <c r="I285" s="4"/>
-      <c r="J285" s="14"/>
+      <c r="J285" s="13"/>
       <c r="K285" s="4"/>
       <c r="L285" s="4"/>
     </row>
@@ -7545,9 +7529,9 @@
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
       <c r="G286" s="4"/>
-      <c r="H286" s="14"/>
+      <c r="H286" s="13"/>
       <c r="I286" s="4"/>
-      <c r="J286" s="14"/>
+      <c r="J286" s="13"/>
       <c r="K286" s="4"/>
       <c r="L286" s="4"/>
     </row>
@@ -7556,9 +7540,9 @@
       <c r="E287" s="4"/>
       <c r="F287" s="4"/>
       <c r="G287" s="4"/>
-      <c r="H287" s="14"/>
+      <c r="H287" s="13"/>
       <c r="I287" s="4"/>
-      <c r="J287" s="14"/>
+      <c r="J287" s="13"/>
       <c r="K287" s="4"/>
       <c r="L287" s="4"/>
     </row>
@@ -7567,9 +7551,9 @@
       <c r="E288" s="4"/>
       <c r="F288" s="4"/>
       <c r="G288" s="4"/>
-      <c r="H288" s="14"/>
+      <c r="H288" s="13"/>
       <c r="I288" s="4"/>
-      <c r="J288" s="14"/>
+      <c r="J288" s="13"/>
       <c r="K288" s="4"/>
       <c r="L288" s="4"/>
     </row>
@@ -7578,9 +7562,9 @@
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
       <c r="G289" s="4"/>
-      <c r="H289" s="14"/>
+      <c r="H289" s="13"/>
       <c r="I289" s="4"/>
-      <c r="J289" s="14"/>
+      <c r="J289" s="13"/>
       <c r="K289" s="4"/>
       <c r="L289" s="4"/>
     </row>
@@ -7589,9 +7573,9 @@
       <c r="E290" s="4"/>
       <c r="F290" s="4"/>
       <c r="G290" s="4"/>
-      <c r="H290" s="14"/>
+      <c r="H290" s="13"/>
       <c r="I290" s="4"/>
-      <c r="J290" s="14"/>
+      <c r="J290" s="13"/>
       <c r="K290" s="4"/>
       <c r="L290" s="4"/>
     </row>
@@ -7600,9 +7584,9 @@
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
       <c r="G291" s="4"/>
-      <c r="H291" s="14"/>
+      <c r="H291" s="13"/>
       <c r="I291" s="4"/>
-      <c r="J291" s="14"/>
+      <c r="J291" s="13"/>
       <c r="K291" s="4"/>
       <c r="L291" s="4"/>
     </row>
@@ -7611,9 +7595,9 @@
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
       <c r="G292" s="4"/>
-      <c r="H292" s="14"/>
+      <c r="H292" s="13"/>
       <c r="I292" s="4"/>
-      <c r="J292" s="14"/>
+      <c r="J292" s="13"/>
       <c r="K292" s="4"/>
       <c r="L292" s="4"/>
     </row>
@@ -7622,9 +7606,9 @@
       <c r="E293" s="4"/>
       <c r="F293" s="4"/>
       <c r="G293" s="4"/>
-      <c r="H293" s="14"/>
+      <c r="H293" s="13"/>
       <c r="I293" s="4"/>
-      <c r="J293" s="14"/>
+      <c r="J293" s="13"/>
       <c r="K293" s="4"/>
       <c r="L293" s="4"/>
     </row>
@@ -7633,9 +7617,9 @@
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
       <c r="G294" s="4"/>
-      <c r="H294" s="14"/>
+      <c r="H294" s="13"/>
       <c r="I294" s="4"/>
-      <c r="J294" s="14"/>
+      <c r="J294" s="13"/>
       <c r="K294" s="4"/>
       <c r="L294" s="4"/>
     </row>
@@ -7644,9 +7628,9 @@
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
       <c r="G295" s="4"/>
-      <c r="H295" s="14"/>
+      <c r="H295" s="13"/>
       <c r="I295" s="4"/>
-      <c r="J295" s="14"/>
+      <c r="J295" s="13"/>
       <c r="K295" s="4"/>
       <c r="L295" s="4"/>
     </row>
@@ -7655,9 +7639,9 @@
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
       <c r="G296" s="4"/>
-      <c r="H296" s="14"/>
+      <c r="H296" s="13"/>
       <c r="I296" s="4"/>
-      <c r="J296" s="14"/>
+      <c r="J296" s="13"/>
       <c r="K296" s="4"/>
       <c r="L296" s="4"/>
     </row>
@@ -7666,9 +7650,9 @@
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
       <c r="G297" s="4"/>
-      <c r="H297" s="14"/>
+      <c r="H297" s="13"/>
       <c r="I297" s="4"/>
-      <c r="J297" s="14"/>
+      <c r="J297" s="13"/>
       <c r="K297" s="4"/>
       <c r="L297" s="4"/>
     </row>
@@ -7677,9 +7661,9 @@
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
       <c r="G298" s="4"/>
-      <c r="H298" s="14"/>
+      <c r="H298" s="13"/>
       <c r="I298" s="4"/>
-      <c r="J298" s="14"/>
+      <c r="J298" s="13"/>
       <c r="K298" s="4"/>
       <c r="L298" s="4"/>
     </row>
@@ -7688,9 +7672,9 @@
       <c r="E299" s="4"/>
       <c r="F299" s="4"/>
       <c r="G299" s="4"/>
-      <c r="H299" s="14"/>
+      <c r="H299" s="13"/>
       <c r="I299" s="4"/>
-      <c r="J299" s="14"/>
+      <c r="J299" s="13"/>
       <c r="K299" s="4"/>
       <c r="L299" s="4"/>
     </row>
@@ -7699,9 +7683,9 @@
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
       <c r="G300" s="4"/>
-      <c r="H300" s="14"/>
+      <c r="H300" s="13"/>
       <c r="I300" s="4"/>
-      <c r="J300" s="14"/>
+      <c r="J300" s="13"/>
       <c r="K300" s="4"/>
       <c r="L300" s="4"/>
     </row>
@@ -7710,9 +7694,9 @@
       <c r="E301" s="4"/>
       <c r="F301" s="4"/>
       <c r="G301" s="4"/>
-      <c r="H301" s="14"/>
+      <c r="H301" s="13"/>
       <c r="I301" s="4"/>
-      <c r="J301" s="14"/>
+      <c r="J301" s="13"/>
       <c r="K301" s="4"/>
       <c r="L301" s="4"/>
     </row>
@@ -7721,9 +7705,9 @@
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
       <c r="G302" s="4"/>
-      <c r="H302" s="14"/>
+      <c r="H302" s="13"/>
       <c r="I302" s="4"/>
-      <c r="J302" s="14"/>
+      <c r="J302" s="13"/>
       <c r="K302" s="4"/>
       <c r="L302" s="4"/>
     </row>
@@ -7732,9 +7716,9 @@
       <c r="E303" s="4"/>
       <c r="F303" s="4"/>
       <c r="G303" s="4"/>
-      <c r="H303" s="14"/>
+      <c r="H303" s="13"/>
       <c r="I303" s="4"/>
-      <c r="J303" s="14"/>
+      <c r="J303" s="13"/>
       <c r="K303" s="4"/>
       <c r="L303" s="4"/>
     </row>
@@ -7743,9 +7727,9 @@
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
       <c r="G304" s="4"/>
-      <c r="H304" s="14"/>
+      <c r="H304" s="13"/>
       <c r="I304" s="4"/>
-      <c r="J304" s="14"/>
+      <c r="J304" s="13"/>
       <c r="K304" s="4"/>
       <c r="L304" s="4"/>
     </row>
@@ -7754,9 +7738,9 @@
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
       <c r="G305" s="4"/>
-      <c r="H305" s="14"/>
+      <c r="H305" s="13"/>
       <c r="I305" s="4"/>
-      <c r="J305" s="14"/>
+      <c r="J305" s="13"/>
       <c r="K305" s="4"/>
       <c r="L305" s="4"/>
     </row>
@@ -7765,9 +7749,9 @@
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
       <c r="G306" s="4"/>
-      <c r="H306" s="14"/>
+      <c r="H306" s="13"/>
       <c r="I306" s="4"/>
-      <c r="J306" s="14"/>
+      <c r="J306" s="13"/>
       <c r="K306" s="4"/>
       <c r="L306" s="4"/>
     </row>
@@ -7776,9 +7760,9 @@
       <c r="E307" s="4"/>
       <c r="F307" s="4"/>
       <c r="G307" s="4"/>
-      <c r="H307" s="14"/>
+      <c r="H307" s="13"/>
       <c r="I307" s="4"/>
-      <c r="J307" s="14"/>
+      <c r="J307" s="13"/>
       <c r="K307" s="4"/>
       <c r="L307" s="4"/>
     </row>
@@ -7787,9 +7771,9 @@
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
       <c r="G308" s="4"/>
-      <c r="H308" s="14"/>
+      <c r="H308" s="13"/>
       <c r="I308" s="4"/>
-      <c r="J308" s="14"/>
+      <c r="J308" s="13"/>
       <c r="K308" s="4"/>
       <c r="L308" s="4"/>
     </row>
@@ -7798,9 +7782,9 @@
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
       <c r="G309" s="4"/>
-      <c r="H309" s="14"/>
+      <c r="H309" s="13"/>
       <c r="I309" s="4"/>
-      <c r="J309" s="14"/>
+      <c r="J309" s="13"/>
       <c r="K309" s="4"/>
       <c r="L309" s="4"/>
     </row>
@@ -7809,9 +7793,9 @@
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
       <c r="G310" s="4"/>
-      <c r="H310" s="14"/>
+      <c r="H310" s="13"/>
       <c r="I310" s="4"/>
-      <c r="J310" s="14"/>
+      <c r="J310" s="13"/>
       <c r="K310" s="4"/>
       <c r="L310" s="4"/>
     </row>
